--- a/data/finland_data/regions/Kymenlaakso.xlsx
+++ b/data/finland_data/regions/Kymenlaakso.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28029"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_9C5455BF84DCCE936262E6F99831F45BBA780A8F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{914B5FC3-E30F-48C3-8E45-9E2E1426CB98}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_9C5455BF84DCCE936262E6F99831F45BBA780A8F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1304D260-0A4C-46A8-8451-01942A2728A0}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,282 +31,855 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="284">
   <si>
     <t>SYKE - GHG emissions of Finnish municipalities</t>
   </si>
   <si>
-    <t>KymenlaaksoHinku calculation without emission credits</t>
-  </si>
-  <si>
-    <t>Total emissions2005(kt CO2e)</t>
-  </si>
-  <si>
-    <t>Total emissions2022(kt CO2e)</t>
-  </si>
-  <si>
-    <t>Change of emissions(%)</t>
-  </si>
-  <si>
-    <t>Emissions per person2005(t CO2e)</t>
-  </si>
-  <si>
-    <t>Emissions per person2022(t CO2e)</t>
-  </si>
-  <si>
-    <t>Change of emissionsper person(%)</t>
+    <t>KYMENLAAKSOHinku calculation without emission credits</t>
   </si>
   <si>
     <t>Electricity</t>
   </si>
   <si>
+    <t>131,3</t>
+  </si>
+  <si>
     <t>162,8</t>
   </si>
   <si>
+    <t>283,7</t>
+  </si>
+  <si>
+    <t>253,5</t>
+  </si>
+  <si>
+    <t>196,7</t>
+  </si>
+  <si>
+    <t>209,8</t>
+  </si>
+  <si>
+    <t>270,9</t>
+  </si>
+  <si>
+    <t>207,0</t>
+  </si>
+  <si>
+    <t>164,9</t>
+  </si>
+  <si>
+    <t>198,8</t>
+  </si>
+  <si>
+    <t>176,5</t>
+  </si>
+  <si>
+    <t>146,8</t>
+  </si>
+  <si>
+    <t>158,0</t>
+  </si>
+  <si>
+    <t>127,0</t>
+  </si>
+  <si>
+    <t>157,3</t>
+  </si>
+  <si>
+    <t>127,6</t>
+  </si>
+  <si>
+    <t>104,3</t>
+  </si>
+  <si>
+    <t>110,4</t>
+  </si>
+  <si>
     <t>101,7</t>
   </si>
   <si>
-    <t>-37,5</t>
-  </si>
-  <si>
-    <t>0,9</t>
-  </si>
-  <si>
-    <t>0,6</t>
-  </si>
-  <si>
-    <t>-30,3</t>
-  </si>
-  <si>
     <t>Electric heating</t>
   </si>
   <si>
+    <t>66,8</t>
+  </si>
+  <si>
     <t>71,3</t>
   </si>
   <si>
+    <t>98,9</t>
+  </si>
+  <si>
+    <t>100,1</t>
+  </si>
+  <si>
+    <t>71,7</t>
+  </si>
+  <si>
+    <t>84,1</t>
+  </si>
+  <si>
+    <t>84,3</t>
+  </si>
+  <si>
+    <t>59,9</t>
+  </si>
+  <si>
+    <t>70,3</t>
+  </si>
+  <si>
+    <t>54,6</t>
+  </si>
+  <si>
+    <t>45,6</t>
+  </si>
+  <si>
+    <t>52,6</t>
+  </si>
+  <si>
+    <t>43,9</t>
+  </si>
+  <si>
+    <t>48,8</t>
+  </si>
+  <si>
+    <t>40,5</t>
+  </si>
+  <si>
+    <t>30,0</t>
+  </si>
+  <si>
+    <t>36,1</t>
+  </si>
+  <si>
     <t>33,3</t>
   </si>
   <si>
-    <t>-53,3</t>
-  </si>
-  <si>
-    <t>0,4</t>
-  </si>
-  <si>
-    <t>0,2</t>
-  </si>
-  <si>
-    <t>-47,9</t>
-  </si>
-  <si>
     <t>District heating</t>
   </si>
   <si>
+    <t>162,6</t>
+  </si>
+  <si>
     <t>120,0</t>
   </si>
   <si>
+    <t>104,2</t>
+  </si>
+  <si>
+    <t>118,6</t>
+  </si>
+  <si>
+    <t>90,0</t>
+  </si>
+  <si>
+    <t>119,9</t>
+  </si>
+  <si>
+    <t>135,8</t>
+  </si>
+  <si>
+    <t>140,5</t>
+  </si>
+  <si>
+    <t>125,9</t>
+  </si>
+  <si>
+    <t>108,6</t>
+  </si>
+  <si>
+    <t>102,9</t>
+  </si>
+  <si>
+    <t>85,7</t>
+  </si>
+  <si>
+    <t>103,5</t>
+  </si>
+  <si>
+    <t>83,8</t>
+  </si>
+  <si>
+    <t>83,2</t>
+  </si>
+  <si>
+    <t>74,2</t>
+  </si>
+  <si>
+    <t>64,9</t>
+  </si>
+  <si>
+    <t>75,0</t>
+  </si>
+  <si>
     <t>82,9</t>
   </si>
   <si>
-    <t>-30,9</t>
-  </si>
-  <si>
-    <t>0,7</t>
-  </si>
-  <si>
-    <t>0,5</t>
-  </si>
-  <si>
-    <t>-22,9</t>
-  </si>
-  <si>
     <t>Oil heating</t>
   </si>
   <si>
+    <t>176,0</t>
+  </si>
+  <si>
     <t>135,1</t>
   </si>
   <si>
+    <t>132,1</t>
+  </si>
+  <si>
+    <t>125,5</t>
+  </si>
+  <si>
+    <t>93,9</t>
+  </si>
+  <si>
+    <t>96,7</t>
+  </si>
+  <si>
+    <t>104,9</t>
+  </si>
+  <si>
+    <t>80,5</t>
+  </si>
+  <si>
+    <t>87,0</t>
+  </si>
+  <si>
+    <t>76,6</t>
+  </si>
+  <si>
+    <t>74,9</t>
+  </si>
+  <si>
+    <t>67,0</t>
+  </si>
+  <si>
+    <t>70,4</t>
+  </si>
+  <si>
+    <t>67,7</t>
+  </si>
+  <si>
+    <t>64,0</t>
+  </si>
+  <si>
+    <t>58,5</t>
+  </si>
+  <si>
+    <t>51,5</t>
+  </si>
+  <si>
+    <t>51,4</t>
+  </si>
+  <si>
     <t>42,3</t>
   </si>
   <si>
-    <t>-68,7</t>
-  </si>
-  <si>
-    <t>0,8</t>
-  </si>
-  <si>
-    <t>0,3</t>
-  </si>
-  <si>
-    <t>-65,1</t>
-  </si>
-  <si>
     <t>Other heating</t>
   </si>
   <si>
+    <t>116,6</t>
+  </si>
+  <si>
     <t>124,5</t>
   </si>
   <si>
+    <t>126,1</t>
+  </si>
+  <si>
+    <t>124,1</t>
+  </si>
+  <si>
+    <t>123,6</t>
+  </si>
+  <si>
+    <t>126,3</t>
+  </si>
+  <si>
+    <t>137,3</t>
+  </si>
+  <si>
+    <t>121,4</t>
+  </si>
+  <si>
+    <t>118,9</t>
+  </si>
+  <si>
+    <t>115,7</t>
+  </si>
+  <si>
+    <t>105,0</t>
+  </si>
+  <si>
+    <t>98,2</t>
+  </si>
+  <si>
+    <t>102,2</t>
+  </si>
+  <si>
+    <t>102,3</t>
+  </si>
+  <si>
+    <t>91,5</t>
+  </si>
+  <si>
+    <t>93,4</t>
+  </si>
+  <si>
+    <t>101,8</t>
+  </si>
+  <si>
     <t>80,7</t>
   </si>
   <si>
-    <t>-35,2</t>
-  </si>
-  <si>
-    <t>-27,7</t>
-  </si>
-  <si>
     <t>Industry</t>
   </si>
   <si>
+    <t>158,2</t>
+  </si>
+  <si>
     <t>88,4</t>
   </si>
   <si>
+    <t>86,5</t>
+  </si>
+  <si>
+    <t>92,3</t>
+  </si>
+  <si>
+    <t>82,0</t>
+  </si>
+  <si>
+    <t>70,0</t>
+  </si>
+  <si>
+    <t>84,2</t>
+  </si>
+  <si>
+    <t>74,6</t>
+  </si>
+  <si>
+    <t>70,8</t>
+  </si>
+  <si>
+    <t>72,3</t>
+  </si>
+  <si>
+    <t>62,5</t>
+  </si>
+  <si>
+    <t>71,9</t>
+  </si>
+  <si>
+    <t>68,4</t>
+  </si>
+  <si>
+    <t>60,3</t>
+  </si>
+  <si>
+    <t>60,7</t>
+  </si>
+  <si>
+    <t>57,5</t>
+  </si>
+  <si>
+    <t>65,0</t>
+  </si>
+  <si>
     <t>76,7</t>
   </si>
   <si>
-    <t>-13,3</t>
-  </si>
-  <si>
-    <t>-3,3</t>
-  </si>
-  <si>
     <t>Machinery</t>
   </si>
   <si>
-    <t>75,0</t>
+    <t>73,5</t>
+  </si>
+  <si>
+    <t>72,7</t>
+  </si>
+  <si>
+    <t>75,8</t>
+  </si>
+  <si>
+    <t>77,1</t>
+  </si>
+  <si>
+    <t>74,7</t>
+  </si>
+  <si>
+    <t>65,8</t>
+  </si>
+  <si>
+    <t>68,2</t>
+  </si>
+  <si>
+    <t>68,1</t>
+  </si>
+  <si>
+    <t>71,6</t>
+  </si>
+  <si>
+    <t>62,9</t>
+  </si>
+  <si>
+    <t>65,5</t>
+  </si>
+  <si>
+    <t>63,1</t>
+  </si>
+  <si>
+    <t>64,4</t>
+  </si>
+  <si>
+    <t>57,1</t>
   </si>
   <si>
     <t>63,3</t>
   </si>
   <si>
-    <t>-15,5</t>
-  </si>
-  <si>
-    <t>-5,7</t>
-  </si>
-  <si>
     <t>Road transport</t>
   </si>
   <si>
+    <t>379,5</t>
+  </si>
+  <si>
     <t>402,0</t>
   </si>
   <si>
+    <t>406,3</t>
+  </si>
+  <si>
+    <t>419,6</t>
+  </si>
+  <si>
+    <t>399,1</t>
+  </si>
+  <si>
+    <t>374,5</t>
+  </si>
+  <si>
+    <t>386,9</t>
+  </si>
+  <si>
+    <t>373,9</t>
+  </si>
+  <si>
+    <t>365,3</t>
+  </si>
+  <si>
+    <t>364,5</t>
+  </si>
+  <si>
+    <t>330,8</t>
+  </si>
+  <si>
+    <t>323,7</t>
+  </si>
+  <si>
+    <t>348,2</t>
+  </si>
+  <si>
+    <t>329,5</t>
+  </si>
+  <si>
+    <t>333,2</t>
+  </si>
+  <si>
+    <t>318,6</t>
+  </si>
+  <si>
+    <t>296,0</t>
+  </si>
+  <si>
+    <t>282,9</t>
+  </si>
+  <si>
     <t>272,5</t>
   </si>
   <si>
-    <t>-32,2</t>
-  </si>
-  <si>
-    <t>2,3</t>
-  </si>
-  <si>
-    <t>1,7</t>
-  </si>
-  <si>
-    <t>-24,4</t>
-  </si>
-  <si>
     <t>Rail transport</t>
   </si>
   <si>
+    <t>19,5</t>
+  </si>
+  <si>
     <t>15,9</t>
   </si>
   <si>
+    <t>21,4</t>
+  </si>
+  <si>
+    <t>19,7</t>
+  </si>
+  <si>
+    <t>17,9</t>
+  </si>
+  <si>
+    <t>16,2</t>
+  </si>
+  <si>
+    <t>18,9</t>
+  </si>
+  <si>
+    <t>17,6</t>
+  </si>
+  <si>
+    <t>15,1</t>
+  </si>
+  <si>
+    <t>16,0</t>
+  </si>
+  <si>
+    <t>14,2</t>
+  </si>
+  <si>
+    <t>10,9</t>
+  </si>
+  <si>
+    <t>11,1</t>
+  </si>
+  <si>
+    <t>11,8</t>
+  </si>
+  <si>
+    <t>11,6</t>
+  </si>
+  <si>
+    <t>9,8</t>
+  </si>
+  <si>
+    <t>10,1</t>
+  </si>
+  <si>
     <t>9,9</t>
   </si>
   <si>
-    <t>-37,7</t>
-  </si>
-  <si>
-    <t>0,1</t>
-  </si>
-  <si>
-    <t>-30,5</t>
-  </si>
-  <si>
     <t>Water transport</t>
   </si>
   <si>
+    <t>38,6</t>
+  </si>
+  <si>
     <t>26,8</t>
   </si>
   <si>
+    <t>28,1</t>
+  </si>
+  <si>
+    <t>29,4</t>
+  </si>
+  <si>
+    <t>28,4</t>
+  </si>
+  <si>
+    <t>27,1</t>
+  </si>
+  <si>
+    <t>48,6</t>
+  </si>
+  <si>
+    <t>51,2</t>
+  </si>
+  <si>
+    <t>28,3</t>
+  </si>
+  <si>
+    <t>24,6</t>
+  </si>
+  <si>
+    <t>22,3</t>
+  </si>
+  <si>
+    <t>22,8</t>
+  </si>
+  <si>
+    <t>22,9</t>
+  </si>
+  <si>
+    <t>21,6</t>
+  </si>
+  <si>
+    <t>21,7</t>
+  </si>
+  <si>
+    <t>44,4</t>
+  </si>
+  <si>
+    <t>16,5</t>
+  </si>
+  <si>
     <t>20,7</t>
   </si>
   <si>
-    <t>-14,0</t>
-  </si>
-  <si>
     <t>Agriculture</t>
   </si>
   <si>
+    <t>193,9</t>
+  </si>
+  <si>
     <t>136,7</t>
   </si>
   <si>
+    <t>134,9</t>
+  </si>
+  <si>
+    <t>130,9</t>
+  </si>
+  <si>
+    <t>131,2</t>
+  </si>
+  <si>
+    <t>125,1</t>
+  </si>
+  <si>
+    <t>125,6</t>
+  </si>
+  <si>
+    <t>120,8</t>
+  </si>
+  <si>
+    <t>117,7</t>
+  </si>
+  <si>
+    <t>117,1</t>
+  </si>
+  <si>
+    <t>116,7</t>
+  </si>
+  <si>
+    <t>115,6</t>
+  </si>
+  <si>
+    <t>118,3</t>
+  </si>
+  <si>
+    <t>114,3</t>
+  </si>
+  <si>
+    <t>112,9</t>
+  </si>
+  <si>
+    <t>118,0</t>
+  </si>
+  <si>
+    <t>116,3</t>
+  </si>
+  <si>
+    <t>109,5</t>
+  </si>
+  <si>
     <t>105,3</t>
   </si>
   <si>
-    <t>-23,0</t>
-  </si>
-  <si>
-    <t>-14,1</t>
-  </si>
-  <si>
     <t>Waste treatment</t>
   </si>
   <si>
-    <t>117,1</t>
+    <t>179,8</t>
+  </si>
+  <si>
+    <t>116,1</t>
+  </si>
+  <si>
+    <t>111,5</t>
+  </si>
+  <si>
+    <t>106,9</t>
+  </si>
+  <si>
+    <t>103,7</t>
+  </si>
+  <si>
+    <t>106,5</t>
+  </si>
+  <si>
+    <t>104,6</t>
+  </si>
+  <si>
+    <t>95,6</t>
+  </si>
+  <si>
+    <t>85,9</t>
+  </si>
+  <si>
+    <t>80,2</t>
+  </si>
+  <si>
+    <t>78,1</t>
+  </si>
+  <si>
+    <t>77,4</t>
+  </si>
+  <si>
+    <t>73,2</t>
+  </si>
+  <si>
+    <t>69,6</t>
+  </si>
+  <si>
+    <t>69,5</t>
+  </si>
+  <si>
+    <t>70,1</t>
   </si>
   <si>
     <t>66,5</t>
   </si>
   <si>
-    <t>-43,2</t>
-  </si>
-  <si>
-    <t>-36,6</t>
-  </si>
-  <si>
     <t>F-gases</t>
   </si>
   <si>
+    <t>2,0</t>
+  </si>
+  <si>
     <t>38,0</t>
   </si>
   <si>
+    <t>43,1</t>
+  </si>
+  <si>
+    <t>44,1</t>
+  </si>
+  <si>
+    <t>45,0</t>
+  </si>
+  <si>
+    <t>43,8</t>
+  </si>
+  <si>
+    <t>43,3</t>
+  </si>
+  <si>
+    <t>43,4</t>
+  </si>
+  <si>
+    <t>42,0</t>
+  </si>
+  <si>
+    <t>39,8</t>
+  </si>
+  <si>
+    <t>41,5</t>
+  </si>
+  <si>
+    <t>37,6</t>
+  </si>
+  <si>
+    <t>35,9</t>
+  </si>
+  <si>
+    <t>30,1</t>
+  </si>
+  <si>
+    <t>25,9</t>
+  </si>
+  <si>
     <t>24,1</t>
   </si>
   <si>
-    <t>-36,5</t>
-  </si>
-  <si>
-    <t>-29,2</t>
-  </si>
-  <si>
     <t>Emission credits</t>
   </si>
   <si>
     <t>0,0</t>
   </si>
   <si>
-    <t>Total</t>
+    <t>total emissions, ktCO2e</t>
+  </si>
+  <si>
+    <t>1698,5</t>
   </si>
   <si>
     <t>1513,7</t>
   </si>
   <si>
+    <t>1654,2</t>
+  </si>
+  <si>
+    <t>1644,9</t>
+  </si>
+  <si>
+    <t>1463,6</t>
+  </si>
+  <si>
+    <t>1471,9</t>
+  </si>
+  <si>
+    <t>1645,2</t>
+  </si>
+  <si>
+    <t>1485,3</t>
+  </si>
+  <si>
+    <t>1366,2</t>
+  </si>
+  <si>
+    <t>1361,7</t>
+  </si>
+  <si>
+    <t>1250,7</t>
+  </si>
+  <si>
+    <t>1177,7</t>
+  </si>
+  <si>
+    <t>1237,3</t>
+  </si>
+  <si>
+    <t>1144,7</t>
+  </si>
+  <si>
+    <t>1156,9</t>
+  </si>
+  <si>
+    <t>1112,0</t>
+  </si>
+  <si>
+    <t>996,6</t>
+  </si>
+  <si>
+    <t>1011,8</t>
+  </si>
+  <si>
     <t>980,0</t>
   </si>
   <si>
-    <t>-35,3</t>
+    <t>per person, tCO2e</t>
+  </si>
+  <si>
+    <t>9,1</t>
   </si>
   <si>
     <t>8,5</t>
   </si>
   <si>
+    <t>9,3</t>
+  </si>
+  <si>
+    <t>8,3</t>
+  </si>
+  <si>
+    <t>8,4</t>
+  </si>
+  <si>
+    <t>9,4</t>
+  </si>
+  <si>
+    <t>7,8</t>
+  </si>
+  <si>
+    <t>7,2</t>
+  </si>
+  <si>
+    <t>6,9</t>
+  </si>
+  <si>
+    <t>6,8</t>
+  </si>
+  <si>
     <t>6,1</t>
   </si>
   <si>
-    <t>-27,8</t>
+    <t>6,3</t>
   </si>
   <si>
     <t>population</t>
@@ -681,389 +1254,1132 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:T20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="J14:K14"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:20">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:20">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3">
+        <v>1990</v>
+      </c>
+      <c r="C3">
+        <v>2005</v>
+      </c>
+      <c r="D3">
+        <v>2006</v>
+      </c>
+      <c r="E3">
+        <v>2007</v>
+      </c>
+      <c r="F3">
+        <v>2008</v>
+      </c>
+      <c r="G3">
+        <v>2009</v>
+      </c>
+      <c r="H3">
+        <v>2010</v>
+      </c>
+      <c r="I3">
+        <v>2011</v>
+      </c>
+      <c r="J3">
+        <v>2012</v>
+      </c>
+      <c r="K3">
+        <v>2013</v>
+      </c>
+      <c r="L3">
+        <v>2014</v>
+      </c>
+      <c r="M3">
+        <v>2015</v>
+      </c>
+      <c r="N3">
+        <v>2016</v>
+      </c>
+      <c r="O3">
+        <v>2017</v>
+      </c>
+      <c r="P3">
+        <v>2018</v>
+      </c>
+      <c r="Q3">
+        <v>2019</v>
+      </c>
+      <c r="R3">
+        <v>2020</v>
+      </c>
+      <c r="S3">
+        <v>2021</v>
+      </c>
+      <c r="T3">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B4" t="s">
         <v>3</v>
       </c>
-      <c r="D3" t="s">
+      <c r="C4" t="s">
         <v>4</v>
       </c>
-      <c r="E3" t="s">
+      <c r="D4" t="s">
         <v>5</v>
       </c>
-      <c r="F3" t="s">
+      <c r="E4" t="s">
         <v>6</v>
       </c>
-      <c r="G3" t="s">
+      <c r="F4" t="s">
         <v>7</v>
       </c>
+      <c r="G4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4" t="s">
+        <v>14</v>
+      </c>
+      <c r="N4" t="s">
+        <v>15</v>
+      </c>
+      <c r="O4" t="s">
+        <v>16</v>
+      </c>
+      <c r="P4" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>18</v>
+      </c>
+      <c r="R4" t="s">
+        <v>19</v>
+      </c>
+      <c r="S4" t="s">
+        <v>20</v>
+      </c>
+      <c r="T4" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" t="s">
-        <v>14</v>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K5" t="s">
+        <v>31</v>
+      </c>
+      <c r="L5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N5" t="s">
+        <v>34</v>
+      </c>
+      <c r="O5" t="s">
+        <v>35</v>
+      </c>
+      <c r="P5" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>37</v>
+      </c>
+      <c r="R5" t="s">
+        <v>38</v>
+      </c>
+      <c r="S5" t="s">
+        <v>39</v>
+      </c>
+      <c r="T5" t="s">
+        <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
-      <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" t="s">
-        <v>21</v>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G6" t="s">
+        <v>47</v>
+      </c>
+      <c r="H6" t="s">
+        <v>48</v>
+      </c>
+      <c r="I6" t="s">
+        <v>49</v>
+      </c>
+      <c r="J6" t="s">
+        <v>50</v>
+      </c>
+      <c r="K6" t="s">
+        <v>51</v>
+      </c>
+      <c r="L6" t="s">
+        <v>52</v>
+      </c>
+      <c r="M6" t="s">
+        <v>53</v>
+      </c>
+      <c r="N6" t="s">
+        <v>54</v>
+      </c>
+      <c r="O6" t="s">
+        <v>55</v>
+      </c>
+      <c r="P6" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>57</v>
+      </c>
+      <c r="R6" t="s">
+        <v>58</v>
+      </c>
+      <c r="S6" t="s">
+        <v>59</v>
+      </c>
+      <c r="T6" t="s">
+        <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
-      <c r="A6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" t="s">
-        <v>28</v>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G7" t="s">
+        <v>67</v>
+      </c>
+      <c r="H7" t="s">
+        <v>68</v>
+      </c>
+      <c r="I7" t="s">
+        <v>69</v>
+      </c>
+      <c r="J7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L7" t="s">
+        <v>72</v>
+      </c>
+      <c r="M7" t="s">
+        <v>73</v>
+      </c>
+      <c r="N7" t="s">
+        <v>74</v>
+      </c>
+      <c r="O7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P7" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>77</v>
+      </c>
+      <c r="R7" t="s">
+        <v>78</v>
+      </c>
+      <c r="S7" t="s">
+        <v>79</v>
+      </c>
+      <c r="T7" t="s">
+        <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
-      <c r="A7" t="s">
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C8" t="s">
+        <v>83</v>
+      </c>
+      <c r="D8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E8" t="s">
+        <v>85</v>
+      </c>
+      <c r="F8" t="s">
+        <v>86</v>
+      </c>
+      <c r="G8" t="s">
+        <v>87</v>
+      </c>
+      <c r="H8" t="s">
+        <v>88</v>
+      </c>
+      <c r="I8" t="s">
+        <v>89</v>
+      </c>
+      <c r="J8" t="s">
+        <v>90</v>
+      </c>
+      <c r="K8" t="s">
+        <v>91</v>
+      </c>
+      <c r="L8" t="s">
+        <v>92</v>
+      </c>
+      <c r="M8" t="s">
+        <v>93</v>
+      </c>
+      <c r="N8" t="s">
+        <v>94</v>
+      </c>
+      <c r="O8" t="s">
+        <v>95</v>
+      </c>
+      <c r="P8" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>97</v>
+      </c>
+      <c r="R8" t="s">
         <v>29</v>
       </c>
-      <c r="B7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G7" t="s">
-        <v>35</v>
+      <c r="S8" t="s">
+        <v>98</v>
+      </c>
+      <c r="T8" t="s">
+        <v>99</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
-      <c r="A8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8" t="s">
-        <v>27</v>
-      </c>
-      <c r="G8" t="s">
-        <v>40</v>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>100</v>
+      </c>
+      <c r="B9" t="s">
+        <v>101</v>
+      </c>
+      <c r="C9" t="s">
+        <v>102</v>
+      </c>
+      <c r="D9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E9" t="s">
+        <v>104</v>
+      </c>
+      <c r="F9" t="s">
+        <v>105</v>
+      </c>
+      <c r="G9" t="s">
+        <v>106</v>
+      </c>
+      <c r="H9" t="s">
+        <v>107</v>
+      </c>
+      <c r="I9" t="s">
+        <v>108</v>
+      </c>
+      <c r="J9" t="s">
+        <v>109</v>
+      </c>
+      <c r="K9" t="s">
+        <v>110</v>
+      </c>
+      <c r="L9" t="s">
+        <v>111</v>
+      </c>
+      <c r="M9" t="s">
+        <v>112</v>
+      </c>
+      <c r="N9" t="s">
+        <v>113</v>
+      </c>
+      <c r="O9" t="s">
+        <v>73</v>
+      </c>
+      <c r="P9" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>115</v>
+      </c>
+      <c r="R9" t="s">
+        <v>116</v>
+      </c>
+      <c r="S9" t="s">
+        <v>117</v>
+      </c>
+      <c r="T9" t="s">
+        <v>118</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
-      <c r="A9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" t="s">
-        <v>43</v>
-      </c>
-      <c r="D9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9" t="s">
-        <v>27</v>
-      </c>
-      <c r="G9" t="s">
-        <v>45</v>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>119</v>
+      </c>
+      <c r="B10" t="s">
+        <v>120</v>
+      </c>
+      <c r="C10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" t="s">
+        <v>121</v>
+      </c>
+      <c r="E10" t="s">
+        <v>122</v>
+      </c>
+      <c r="F10" t="s">
+        <v>123</v>
+      </c>
+      <c r="G10" t="s">
+        <v>124</v>
+      </c>
+      <c r="H10" t="s">
+        <v>112</v>
+      </c>
+      <c r="I10" t="s">
+        <v>125</v>
+      </c>
+      <c r="J10" t="s">
+        <v>120</v>
+      </c>
+      <c r="K10" t="s">
+        <v>126</v>
+      </c>
+      <c r="L10" t="s">
+        <v>127</v>
+      </c>
+      <c r="M10" t="s">
+        <v>128</v>
+      </c>
+      <c r="N10" t="s">
+        <v>129</v>
+      </c>
+      <c r="O10" t="s">
+        <v>130</v>
+      </c>
+      <c r="P10" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>58</v>
+      </c>
+      <c r="R10" t="s">
+        <v>132</v>
+      </c>
+      <c r="S10" t="s">
+        <v>133</v>
+      </c>
+      <c r="T10" t="s">
+        <v>134</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
-      <c r="A10" t="s">
-        <v>46</v>
-      </c>
-      <c r="B10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10" t="s">
-        <v>49</v>
-      </c>
-      <c r="E10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" t="s">
-        <v>50</v>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>135</v>
+      </c>
+      <c r="B11" t="s">
+        <v>136</v>
+      </c>
+      <c r="C11" t="s">
+        <v>137</v>
+      </c>
+      <c r="D11" t="s">
+        <v>138</v>
+      </c>
+      <c r="E11" t="s">
+        <v>139</v>
+      </c>
+      <c r="F11" t="s">
+        <v>140</v>
+      </c>
+      <c r="G11" t="s">
+        <v>141</v>
+      </c>
+      <c r="H11" t="s">
+        <v>142</v>
+      </c>
+      <c r="I11" t="s">
+        <v>143</v>
+      </c>
+      <c r="J11" t="s">
+        <v>144</v>
+      </c>
+      <c r="K11" t="s">
+        <v>145</v>
+      </c>
+      <c r="L11" t="s">
+        <v>146</v>
+      </c>
+      <c r="M11" t="s">
+        <v>147</v>
+      </c>
+      <c r="N11" t="s">
+        <v>148</v>
+      </c>
+      <c r="O11" t="s">
+        <v>149</v>
+      </c>
+      <c r="P11" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>151</v>
+      </c>
+      <c r="R11" t="s">
+        <v>152</v>
+      </c>
+      <c r="S11" t="s">
+        <v>153</v>
+      </c>
+      <c r="T11" t="s">
+        <v>154</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
-      <c r="A11" t="s">
-        <v>51</v>
-      </c>
-      <c r="B11" t="s">
-        <v>52</v>
-      </c>
-      <c r="C11" t="s">
-        <v>53</v>
-      </c>
-      <c r="D11" t="s">
-        <v>54</v>
-      </c>
-      <c r="E11" t="s">
-        <v>55</v>
-      </c>
-      <c r="F11" t="s">
-        <v>56</v>
-      </c>
-      <c r="G11" t="s">
-        <v>57</v>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>155</v>
+      </c>
+      <c r="B12" t="s">
+        <v>156</v>
+      </c>
+      <c r="C12" t="s">
+        <v>157</v>
+      </c>
+      <c r="D12" t="s">
+        <v>158</v>
+      </c>
+      <c r="E12" t="s">
+        <v>159</v>
+      </c>
+      <c r="F12" t="s">
+        <v>160</v>
+      </c>
+      <c r="G12" t="s">
+        <v>161</v>
+      </c>
+      <c r="H12" t="s">
+        <v>162</v>
+      </c>
+      <c r="I12" t="s">
+        <v>163</v>
+      </c>
+      <c r="J12" t="s">
+        <v>164</v>
+      </c>
+      <c r="K12" t="s">
+        <v>165</v>
+      </c>
+      <c r="L12" t="s">
+        <v>166</v>
+      </c>
+      <c r="M12" t="s">
+        <v>167</v>
+      </c>
+      <c r="N12" t="s">
+        <v>168</v>
+      </c>
+      <c r="O12" t="s">
+        <v>167</v>
+      </c>
+      <c r="P12" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>170</v>
+      </c>
+      <c r="R12" t="s">
+        <v>171</v>
+      </c>
+      <c r="S12" t="s">
+        <v>172</v>
+      </c>
+      <c r="T12" t="s">
+        <v>173</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
-      <c r="A12" t="s">
-        <v>58</v>
-      </c>
-      <c r="B12" t="s">
-        <v>59</v>
-      </c>
-      <c r="C12" t="s">
-        <v>60</v>
-      </c>
-      <c r="D12" t="s">
-        <v>61</v>
-      </c>
-      <c r="E12" t="s">
-        <v>62</v>
-      </c>
-      <c r="F12" t="s">
-        <v>62</v>
-      </c>
-      <c r="G12" t="s">
-        <v>63</v>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>174</v>
+      </c>
+      <c r="B13" t="s">
+        <v>175</v>
+      </c>
+      <c r="C13" t="s">
+        <v>176</v>
+      </c>
+      <c r="D13" t="s">
+        <v>177</v>
+      </c>
+      <c r="E13" t="s">
+        <v>178</v>
+      </c>
+      <c r="F13" t="s">
+        <v>179</v>
+      </c>
+      <c r="G13" t="s">
+        <v>180</v>
+      </c>
+      <c r="H13" t="s">
+        <v>181</v>
+      </c>
+      <c r="I13" t="s">
+        <v>182</v>
+      </c>
+      <c r="J13" t="s">
+        <v>183</v>
+      </c>
+      <c r="K13" t="s">
+        <v>184</v>
+      </c>
+      <c r="L13" t="s">
+        <v>185</v>
+      </c>
+      <c r="M13" t="s">
+        <v>186</v>
+      </c>
+      <c r="N13" t="s">
+        <v>187</v>
+      </c>
+      <c r="O13" t="s">
+        <v>188</v>
+      </c>
+      <c r="P13" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>190</v>
+      </c>
+      <c r="R13" t="s">
+        <v>159</v>
+      </c>
+      <c r="S13" t="s">
+        <v>191</v>
+      </c>
+      <c r="T13" t="s">
+        <v>192</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
-      <c r="A13" t="s">
-        <v>64</v>
-      </c>
-      <c r="B13" t="s">
-        <v>65</v>
-      </c>
-      <c r="C13" t="s">
-        <v>66</v>
-      </c>
-      <c r="D13" t="s">
-        <v>28</v>
-      </c>
-      <c r="E13" t="s">
-        <v>20</v>
-      </c>
-      <c r="F13" t="s">
-        <v>62</v>
-      </c>
-      <c r="G13" t="s">
-        <v>67</v>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>193</v>
+      </c>
+      <c r="B14" t="s">
+        <v>194</v>
+      </c>
+      <c r="C14" t="s">
+        <v>195</v>
+      </c>
+      <c r="D14" t="s">
+        <v>196</v>
+      </c>
+      <c r="E14" t="s">
+        <v>197</v>
+      </c>
+      <c r="F14" t="s">
+        <v>198</v>
+      </c>
+      <c r="G14" t="s">
+        <v>199</v>
+      </c>
+      <c r="H14" t="s">
+        <v>200</v>
+      </c>
+      <c r="I14" t="s">
+        <v>201</v>
+      </c>
+      <c r="J14" t="s">
+        <v>202</v>
+      </c>
+      <c r="K14" t="s">
+        <v>203</v>
+      </c>
+      <c r="L14" t="s">
+        <v>204</v>
+      </c>
+      <c r="M14" t="s">
+        <v>205</v>
+      </c>
+      <c r="N14" t="s">
+        <v>206</v>
+      </c>
+      <c r="O14" t="s">
+        <v>207</v>
+      </c>
+      <c r="P14" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>209</v>
+      </c>
+      <c r="R14" t="s">
+        <v>210</v>
+      </c>
+      <c r="S14" t="s">
+        <v>211</v>
+      </c>
+      <c r="T14" t="s">
+        <v>212</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
-      <c r="A14" t="s">
-        <v>68</v>
-      </c>
-      <c r="B14" t="s">
-        <v>69</v>
-      </c>
-      <c r="C14" t="s">
-        <v>70</v>
-      </c>
-      <c r="D14" t="s">
-        <v>71</v>
-      </c>
-      <c r="E14" t="s">
-        <v>33</v>
-      </c>
-      <c r="F14" t="s">
-        <v>26</v>
-      </c>
-      <c r="G14" t="s">
-        <v>72</v>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>213</v>
+      </c>
+      <c r="B15" t="s">
+        <v>214</v>
+      </c>
+      <c r="C15" t="s">
+        <v>203</v>
+      </c>
+      <c r="D15" t="s">
+        <v>215</v>
+      </c>
+      <c r="E15" t="s">
+        <v>216</v>
+      </c>
+      <c r="F15" t="s">
+        <v>217</v>
+      </c>
+      <c r="G15" t="s">
+        <v>218</v>
+      </c>
+      <c r="H15" t="s">
+        <v>219</v>
+      </c>
+      <c r="I15" t="s">
+        <v>220</v>
+      </c>
+      <c r="J15" t="s">
+        <v>221</v>
+      </c>
+      <c r="K15" t="s">
+        <v>222</v>
+      </c>
+      <c r="L15" t="s">
+        <v>223</v>
+      </c>
+      <c r="M15" t="s">
+        <v>224</v>
+      </c>
+      <c r="N15" t="s">
+        <v>225</v>
+      </c>
+      <c r="O15" t="s">
+        <v>120</v>
+      </c>
+      <c r="P15" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>227</v>
+      </c>
+      <c r="R15" t="s">
+        <v>228</v>
+      </c>
+      <c r="S15" t="s">
+        <v>229</v>
+      </c>
+      <c r="T15" t="s">
+        <v>230</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
-      <c r="A15" t="s">
-        <v>73</v>
-      </c>
-      <c r="B15" t="s">
-        <v>74</v>
-      </c>
-      <c r="C15" t="s">
-        <v>75</v>
-      </c>
-      <c r="D15" t="s">
-        <v>76</v>
-      </c>
-      <c r="E15" t="s">
-        <v>26</v>
-      </c>
-      <c r="F15" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" t="s">
-        <v>77</v>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>231</v>
+      </c>
+      <c r="B16" t="s">
+        <v>232</v>
+      </c>
+      <c r="C16" t="s">
+        <v>233</v>
+      </c>
+      <c r="D16" t="s">
+        <v>234</v>
+      </c>
+      <c r="E16" t="s">
+        <v>235</v>
+      </c>
+      <c r="F16" t="s">
+        <v>236</v>
+      </c>
+      <c r="G16" t="s">
+        <v>237</v>
+      </c>
+      <c r="H16" t="s">
+        <v>238</v>
+      </c>
+      <c r="I16" t="s">
+        <v>234</v>
+      </c>
+      <c r="J16" t="s">
+        <v>239</v>
+      </c>
+      <c r="K16" t="s">
+        <v>234</v>
+      </c>
+      <c r="L16" t="s">
+        <v>240</v>
+      </c>
+      <c r="M16" t="s">
+        <v>241</v>
+      </c>
+      <c r="N16" t="s">
+        <v>242</v>
+      </c>
+      <c r="O16" t="s">
+        <v>243</v>
+      </c>
+      <c r="P16" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>245</v>
+      </c>
+      <c r="R16" t="s">
+        <v>179</v>
+      </c>
+      <c r="S16" t="s">
+        <v>246</v>
+      </c>
+      <c r="T16" t="s">
+        <v>247</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
-      <c r="A16" t="s">
-        <v>78</v>
-      </c>
-      <c r="B16" t="s">
-        <v>79</v>
-      </c>
-      <c r="C16" t="s">
-        <v>80</v>
-      </c>
-      <c r="D16" t="s">
-        <v>81</v>
-      </c>
-      <c r="E16" t="s">
-        <v>20</v>
-      </c>
-      <c r="F16" t="s">
-        <v>20</v>
-      </c>
-      <c r="G16" t="s">
-        <v>82</v>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>248</v>
+      </c>
+      <c r="B17" t="s">
+        <v>249</v>
+      </c>
+      <c r="C17" t="s">
+        <v>249</v>
+      </c>
+      <c r="D17" t="s">
+        <v>249</v>
+      </c>
+      <c r="E17" t="s">
+        <v>249</v>
+      </c>
+      <c r="F17" t="s">
+        <v>249</v>
+      </c>
+      <c r="G17" t="s">
+        <v>249</v>
+      </c>
+      <c r="H17" t="s">
+        <v>249</v>
+      </c>
+      <c r="I17" t="s">
+        <v>249</v>
+      </c>
+      <c r="J17" t="s">
+        <v>249</v>
+      </c>
+      <c r="K17" t="s">
+        <v>249</v>
+      </c>
+      <c r="L17" t="s">
+        <v>249</v>
+      </c>
+      <c r="M17" t="s">
+        <v>249</v>
+      </c>
+      <c r="N17" t="s">
+        <v>249</v>
+      </c>
+      <c r="O17" t="s">
+        <v>249</v>
+      </c>
+      <c r="P17" t="s">
+        <v>249</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>249</v>
+      </c>
+      <c r="R17" t="s">
+        <v>249</v>
+      </c>
+      <c r="S17" t="s">
+        <v>249</v>
+      </c>
+      <c r="T17" t="s">
+        <v>249</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
-      <c r="A17" t="s">
-        <v>83</v>
-      </c>
-      <c r="B17" t="s">
-        <v>84</v>
-      </c>
-      <c r="C17" t="s">
-        <v>84</v>
-      </c>
-      <c r="E17" t="s">
-        <v>84</v>
-      </c>
-      <c r="F17" t="s">
-        <v>84</v>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>250</v>
+      </c>
+      <c r="B18" t="s">
+        <v>251</v>
+      </c>
+      <c r="C18" t="s">
+        <v>252</v>
+      </c>
+      <c r="D18" t="s">
+        <v>253</v>
+      </c>
+      <c r="E18" t="s">
+        <v>254</v>
+      </c>
+      <c r="F18" t="s">
+        <v>255</v>
+      </c>
+      <c r="G18" t="s">
+        <v>256</v>
+      </c>
+      <c r="H18" t="s">
+        <v>257</v>
+      </c>
+      <c r="I18" t="s">
+        <v>258</v>
+      </c>
+      <c r="J18" t="s">
+        <v>259</v>
+      </c>
+      <c r="K18" t="s">
+        <v>260</v>
+      </c>
+      <c r="L18" t="s">
+        <v>261</v>
+      </c>
+      <c r="M18" t="s">
+        <v>262</v>
+      </c>
+      <c r="N18" t="s">
+        <v>263</v>
+      </c>
+      <c r="O18" t="s">
+        <v>264</v>
+      </c>
+      <c r="P18" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>266</v>
+      </c>
+      <c r="R18" t="s">
+        <v>267</v>
+      </c>
+      <c r="S18" t="s">
+        <v>268</v>
+      </c>
+      <c r="T18" t="s">
+        <v>269</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
-      <c r="A18" t="s">
-        <v>85</v>
-      </c>
-      <c r="B18" t="s">
-        <v>86</v>
-      </c>
-      <c r="C18" t="s">
-        <v>87</v>
-      </c>
-      <c r="D18" t="s">
-        <v>88</v>
-      </c>
-      <c r="E18" t="s">
-        <v>89</v>
-      </c>
-      <c r="F18" t="s">
-        <v>90</v>
-      </c>
-      <c r="G18" t="s">
-        <v>91</v>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>270</v>
+      </c>
+      <c r="B19" t="s">
+        <v>271</v>
+      </c>
+      <c r="C19" t="s">
+        <v>272</v>
+      </c>
+      <c r="D19" t="s">
+        <v>273</v>
+      </c>
+      <c r="E19" t="s">
+        <v>273</v>
+      </c>
+      <c r="F19" t="s">
+        <v>274</v>
+      </c>
+      <c r="G19" t="s">
+        <v>275</v>
+      </c>
+      <c r="H19" t="s">
+        <v>276</v>
+      </c>
+      <c r="I19" t="s">
+        <v>272</v>
+      </c>
+      <c r="J19" t="s">
+        <v>277</v>
+      </c>
+      <c r="K19" t="s">
+        <v>277</v>
+      </c>
+      <c r="L19" t="s">
+        <v>278</v>
+      </c>
+      <c r="M19" t="s">
+        <v>279</v>
+      </c>
+      <c r="N19" t="s">
+        <v>278</v>
+      </c>
+      <c r="O19" t="s">
+        <v>280</v>
+      </c>
+      <c r="P19" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>280</v>
+      </c>
+      <c r="R19" t="s">
+        <v>281</v>
+      </c>
+      <c r="S19" t="s">
+        <v>282</v>
+      </c>
+      <c r="T19" t="s">
+        <v>281</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
-      <c r="A19" t="s">
-        <v>92</v>
-      </c>
-      <c r="B19">
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>283</v>
+      </c>
+      <c r="B20">
+        <v>186030</v>
+      </c>
+      <c r="C20">
         <v>177931</v>
       </c>
-      <c r="C19">
+      <c r="D20">
+        <v>176995</v>
+      </c>
+      <c r="E20">
+        <v>176356</v>
+      </c>
+      <c r="F20">
+        <v>175661</v>
+      </c>
+      <c r="G20">
+        <v>175556</v>
+      </c>
+      <c r="H20">
+        <v>175377</v>
+      </c>
+      <c r="I20">
+        <v>174827</v>
+      </c>
+      <c r="J20">
+        <v>174466</v>
+      </c>
+      <c r="K20">
+        <v>173864</v>
+      </c>
+      <c r="L20">
+        <v>172908</v>
+      </c>
+      <c r="M20">
+        <v>171778</v>
+      </c>
+      <c r="N20">
+        <v>170770</v>
+      </c>
+      <c r="O20">
+        <v>168691</v>
+      </c>
+      <c r="P20">
+        <v>166623</v>
+      </c>
+      <c r="Q20">
+        <v>164456</v>
+      </c>
+      <c r="R20">
+        <v>162812</v>
+      </c>
+      <c r="S20">
+        <v>161391</v>
+      </c>
+      <c r="T20">
         <v>159488</v>
       </c>
     </row>
